--- a/data-public/raw/proto_data_generator.xlsx
+++ b/data-public/raw/proto_data_generator.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="proto_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>label_ha</t>
   </si>
@@ -124,12 +124,18 @@
   </si>
   <si>
     <t>Flower Deafness</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>bottom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,8 +452,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -559,6 +583,151 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,8 +776,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -654,7 +843,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -930,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M17" sqref="A1:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,816 +1153,865 @@
     <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="O1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>2000</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <f>SUM(H$2,H$6,H$9,H$12,H$15)</f>
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <f>SUM(I$2,I$6,I$9,I$12,I$15)</f>
-        <v>56</v>
-      </c>
-      <c r="G2">
-        <f>SUM(E2:F2)</f>
-        <v>101</v>
-      </c>
-      <c r="H2">
-        <f>SUM($K$2:$K$5)</f>
+      <c r="E2" s="4">
+        <f ca="1">SUM(H$2,H$6,H$9,H$12,H$15)</f>
+        <v>216</v>
+      </c>
+      <c r="F2" s="5">
+        <f ca="1">SUM(I$2,I$6,I$9,I$12,I$15)</f>
+        <v>176</v>
+      </c>
+      <c r="G2" s="6">
+        <f ca="1">SUM(E2:F2)</f>
+        <v>392</v>
+      </c>
+      <c r="H2" s="4">
+        <f ca="1">SUM($K$2:$K$5)</f>
+        <v>50</v>
+      </c>
+      <c r="I2" s="5">
+        <f ca="1">SUM($L$2:$L$5)</f>
+        <v>41</v>
+      </c>
+      <c r="J2" s="6">
+        <f ca="1">SUM(H2:I2)</f>
+        <v>91</v>
+      </c>
+      <c r="K2" s="7">
+        <f ca="1">RANDBETWEEN($O$2,$P$2)</f>
+        <v>9</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ref="L2:L17" ca="1" si="0">RANDBETWEEN($O$2,$P$2)</f>
+        <v>12</v>
+      </c>
+      <c r="M2" s="9">
+        <f ca="1">SUM(K2:L2)</f>
+        <v>21</v>
+      </c>
+      <c r="O2" s="16">
+        <v>4</v>
+      </c>
+      <c r="P2" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E6" ca="1" si="1">SUM(H$2,H$6,H$9,H$12,H$15)</f>
+        <v>216</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F6" ca="1" si="2">SUM(I$2,I$6,I$9,I$12,I$15)</f>
+        <v>176</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G17" ca="1" si="3">SUM(E3:F3)</f>
+        <v>392</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H5" ca="1" si="4">SUM($K$2:$K$5)</f>
+        <v>50</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I5" ca="1" si="5">SUM($L$2:$L$5)</f>
+        <v>41</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J5" ca="1" si="6">SUM(H3:I3)</f>
+        <v>91</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:L17" ca="1" si="7">RANDBETWEEN($O$2,$P$2)</f>
+        <v>16</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M17" ca="1" si="8">SUM(K3:L3)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2">
-        <f>SUM($L$2:$L$5)</f>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H6" s="4">
+        <f ca="1">SUM($K$6:$K$8)</f>
+        <v>46</v>
+      </c>
+      <c r="I6" s="5">
+        <f ca="1">SUM($L$6:$L$8)</f>
+        <v>36</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6" ca="1" si="9">SUM(H6:I6)</f>
+        <v>82</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:E17" ca="1" si="10">SUM(H$2,H$6,H$9,H$12,H$15)</f>
+        <v>216</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F17" ca="1" si="11">SUM(I$2,I$6,I$9,I$12,I$15)</f>
+        <v>176</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" ref="H7:H8" ca="1" si="12">SUM($K$6:$K$8)</f>
+        <v>46</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" ref="I7:I8" ca="1" si="13">SUM($L$6:$L$8)</f>
+        <v>36</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J8" ca="1" si="14">SUM(H7:I7)</f>
+        <v>82</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" ca="1" si="12"/>
+        <v>46</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" ca="1" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H9" s="4">
+        <f ca="1">SUM($K$9:$K$11)</f>
+        <v>48</v>
+      </c>
+      <c r="I9" s="5">
+        <f ca="1">SUM($L$9:$L$11)</f>
+        <v>21</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" ref="J9" ca="1" si="15">SUM(H9:I9)</f>
+        <v>69</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" ref="H10:H11" ca="1" si="16">SUM($K$9:$K$11)</f>
+        <v>48</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10:I11" ca="1" si="17">SUM($L$9:$L$11)</f>
+        <v>21</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" ref="J10:J11" ca="1" si="18">SUM(H10:I10)</f>
+        <v>69</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <f>SUM(H2:I2)</f>
+      <c r="E11" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" ca="1" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" ca="1" si="17"/>
         <v>21</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
+      <c r="J11" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>69</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H12" s="4">
+        <f ca="1">SUM($K$12:$K$14)</f>
+        <v>48</v>
+      </c>
+      <c r="I12" s="5">
+        <f ca="1">SUM($L$12:$L$14)</f>
+        <v>38</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" ref="J12" ca="1" si="19">SUM(H12:I12)</f>
+        <v>86</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" ref="H13:H14" ca="1" si="20">SUM($K$12:$K$14)</f>
+        <v>48</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" ref="I13:I14" ca="1" si="21">SUM($L$12:$L$14)</f>
+        <v>38</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" ref="J13:J15" ca="1" si="22">SUM(H13:I13)</f>
+        <v>86</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" ca="1" si="20"/>
+        <v>48</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" ca="1" si="21"/>
+        <v>38</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" ca="1" si="22"/>
+        <v>86</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H15" s="4">
+        <f ca="1">SUM($K$15:$K$17)</f>
+        <v>24</v>
+      </c>
+      <c r="I15" s="5">
+        <f ca="1">SUM($L$15:$L$17)</f>
+        <v>40</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>64</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" ref="H16:H17" ca="1" si="23">SUM($K$15:$K$17)</f>
+        <v>24</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" ref="I16:I17" ca="1" si="24">SUM($L$15:$L$17)</f>
+        <v>40</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" ref="J16:J17" ca="1" si="25">SUM(H16:I16)</f>
+        <v>64</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
-      <c r="M2">
-        <f>SUM(K2:L2)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">SUM(H$2,H$6,H$9,H$12,H$15)</f>
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="1">SUM(I$2,I$6,I$9,I$12,I$15)</f>
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G17" si="2">SUM(E3:F3)</f>
-        <v>101</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H6" si="3">SUM($K$2:$K$5)</f>
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I6" si="4">SUM($L$2:$L$5)</f>
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J5" si="5">SUM(H3:I3)</f>
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M18" si="6">SUM(K3:L3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>2000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>2000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H6">
-        <f>SUM($K$6:$K$8)</f>
+      <c r="L16" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="I6">
-        <f>SUM($L$6:$L$8)</f>
-        <v>13</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ref="J6" si="7">SUM(H6:I6)</f>
-        <v>23</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
-        <v>2000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E17" si="8">SUM(H$2,H$6,H$9,H$12,H$15)</f>
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F17" si="9">SUM(I$2,I$6,I$9,I$12,I$15)</f>
-        <v>56</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H9" si="10">SUM($K$6:$K$8)</f>
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ref="I7:I9" si="11">SUM($L$6:$L$8)</f>
-        <v>13</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ref="J7:J8" si="12">SUM(H7:I7)</f>
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>2000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H9">
-        <f>SUM($K$9:$K$11)</f>
+      <c r="M16" s="9">
+        <f t="shared" ca="1" si="8"/>
         <v>15</v>
-      </c>
-      <c r="I9">
-        <f>SUM($L$9:$L$11)</f>
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ref="J9" si="13">SUM(H9:I9)</f>
-        <v>27</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>2000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H12" si="14">SUM($K$9:$K$11)</f>
-        <v>15</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I12" si="15">SUM($L$9:$L$11)</f>
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ref="J10:J11" si="16">SUM(H10:I10)</f>
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>2000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>2000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H12">
-        <f>SUM($K$12:$K$14)</f>
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <f>SUM($L$12:$L$14)</f>
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12" si="17">SUM(H12:I12)</f>
-        <v>14</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>2000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13:H14" si="18">SUM($K$12:$K$14)</f>
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13:I14" si="19">SUM($L$12:$L$14)</f>
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ref="J13:J15" si="20">SUM(H13:I13)</f>
-        <v>14</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>2000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>2000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H15">
-        <f>SUM($K$15:$K$17)</f>
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <f>SUM($L$15:$L$17)</f>
-        <v>9</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="20"/>
-        <v>16</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>2000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H17" si="21">SUM($K$15:$K$17)</f>
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ref="I16:I17" si="22">SUM($L$15:$L$17)</f>
-        <v>9</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ref="J16:J17" si="23">SUM(H16:I16)</f>
-        <v>16</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="6"/>
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12">
         <v>2000</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="21"/>
+      <c r="E17" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" ca="1" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" ca="1" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" ca="1" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" ca="1" si="7"/>
         <v>7</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="22"/>
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="23"/>
-        <v>16</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="6"/>
-        <v>8</v>
+      <c r="L17" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:M17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
